--- a/tests/data/iris.xlsx
+++ b/tests/data/iris.xlsx
@@ -35,12 +35,6 @@
     <t>petal length in cm</t>
   </si>
   <si>
-    <t xml:space="preserve"> petal with in cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> class</t>
-  </si>
-  <si>
     <t>Iris-setosa</t>
   </si>
   <si>
@@ -48,6 +42,12 @@
   </si>
   <si>
     <t>Iris-virginica</t>
+  </si>
+  <si>
+    <t>petal with in cm</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -399,10 +399,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -419,7 +419,7 @@
         <v>0.2</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -436,7 +436,7 @@
         <v>0.2</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
         <v>0.2</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>0.2</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>0.4</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>0.3</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>0.2</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>0.2</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>0.2</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>0.2</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>0.1</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>0.4</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>0.3</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>0.3</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>0.3</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>0.2</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>0.4</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>0.2</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>0.2</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>0.2</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>0.4</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>0.2</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>0.2</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>0.2</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>0.2</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>0.4</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>0.2</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>0.1</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>0.2</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>0.2</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>0.1</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>0.2</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
         <v>0.2</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>0.3</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>0.3</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>0.2</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>0.6</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>0.4</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>0.3</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>0.2</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>0.2</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>0.2</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>0.2</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>1.4</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>1.5</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>1.5</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>1.3</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>1.5</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>1.3</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
         <v>1.6</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>1.3</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>1.4</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>1.5</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>1.4</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>1.3</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>1.4</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>1.5</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>1.5</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>1.8</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>1.3</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>1.5</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>1.2</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>1.3</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>1.4</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>1.4</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>1.7</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>1.5</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>1.2</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>1.6</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>1.5</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>1.6</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>1.5</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>1.3</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>1.3</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>1.3</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>1.2</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>1.4</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>1.2</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>1.3</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>1.2</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>1.3</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>1.3</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>1.3</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>2.5</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>1.9</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
         <v>2.1</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>1.8</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,7 +2187,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>2.1</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
         <v>1.7</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>1.8</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>1.8</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>2.5</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>1.9</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
         <v>2.1</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>2.4</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>1.8</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>1.5</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2510,7 +2510,7 @@
         <v>1.8</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>2.1</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>1.8</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>1.8</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
         <v>1.8</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>2.1</v>
       </c>
       <c r="E130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>1.6</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
         <v>1.9</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>1.5</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
         <v>1.4</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>2.4</v>
       </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>1.8</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>1.8</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
         <v>2.1</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>2.4</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
         <v>1.9</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
         <v>2.5</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,7 +2901,7 @@
         <v>1.9</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>1.8</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
